--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2071830.716388763</v>
+        <v>-2077693.036423943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14423297.3733896</v>
+        <v>14422117.41460876</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>251.6817215928384</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,10 +674,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>3.673719925400338</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>102.370233969557</v>
+        <v>108.4193899367834</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -817,10 +817,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>59.28852602966767</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>140.6519468954275</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>150.8729237836118</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>129.6711116421943</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226177</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615192</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>21.76352396253269</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>83.32504548537895</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>268.6985483968105</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>122.6541428218174</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>78.75187751641161</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.2276889092491</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>3.351632718882839</v>
+        <v>179.9681453153611</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.27954812437062</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,19 +1582,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>84.831316575822</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,10 +1613,10 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.55300627529615</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>52.33393058304866</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>84.61834937596173</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>111.3376887986758</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277607</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574969</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564981</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167813</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196054</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380027</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.22330424667938</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644664</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883878</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541082</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658275</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038671</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656599</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1004.73589594845</v>
+        <v>1194.186612014918</v>
       </c>
       <c r="C2" t="n">
-        <v>611.5603944513803</v>
+        <v>1194.186612014918</v>
       </c>
       <c r="D2" t="n">
-        <v>611.5603944513803</v>
+        <v>1194.186612014918</v>
       </c>
       <c r="E2" t="n">
-        <v>611.5603944513803</v>
+        <v>791.6030871314628</v>
       </c>
       <c r="F2" t="n">
-        <v>194.665955981358</v>
+        <v>374.7086486614405</v>
       </c>
       <c r="G2" t="n">
-        <v>185.5436045097653</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L2" t="n">
-        <v>575.6798488177243</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="M2" t="n">
-        <v>1113.938633827817</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1641.749917465279</v>
+        <v>1102.08968465212</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023272</v>
+        <v>1819.409608251518</v>
       </c>
       <c r="V2" t="n">
-        <v>1794.68324672679</v>
+        <v>1819.409608251518</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.68324672679</v>
+        <v>1448.410573219805</v>
       </c>
       <c r="X2" t="n">
-        <v>1405.230641659847</v>
+        <v>1448.410573219805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.230641659847</v>
+        <v>1448.410573219805</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679.7304610040803</v>
+        <v>556.1927859813143</v>
       </c>
       <c r="C3" t="n">
-        <v>529.0762305641725</v>
+        <v>405.5385555414065</v>
       </c>
       <c r="D3" t="n">
-        <v>529.0762305641725</v>
+        <v>275.4495881628868</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>165.9350528732066</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>158.7695259828336</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>642.3356118811469</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653876</v>
+        <v>1155.938290490834</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1155.938290490834</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1669.540969100522</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.852292637619</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1862.868480836527</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U3" t="n">
-        <v>1652.805337515169</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V3" t="n">
-        <v>1430.265335886236</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W3" t="n">
-        <v>1200.148090019523</v>
+        <v>1076.610414996757</v>
       </c>
       <c r="X3" t="n">
-        <v>1010.841012369534</v>
+        <v>887.3033373467683</v>
       </c>
       <c r="Y3" t="n">
-        <v>831.5267954450417</v>
+        <v>707.9891204222756</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1562.063485656604</v>
+        <v>211.7083646903492</v>
       </c>
       <c r="C4" t="n">
-        <v>1562.063485656604</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="D4" t="n">
-        <v>1406.430372559119</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="E4" t="n">
-        <v>1406.430372559119</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="F4" t="n">
-        <v>1406.430372559119</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="G4" t="n">
-        <v>1406.430372559119</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H4" t="n">
-        <v>1406.430372559119</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196197</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196197</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306139</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179939</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518203</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549412</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.48460759112</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367699</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.78296973775</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.78296973775</v>
+        <v>883.0628692679234</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.78296973775</v>
+        <v>680.2467854504728</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.78296973775</v>
+        <v>680.2467854504728</v>
       </c>
       <c r="U4" t="n">
-        <v>1889.344177979651</v>
+        <v>680.2467854504728</v>
       </c>
       <c r="V4" t="n">
-        <v>1889.344177979651</v>
+        <v>680.2467854504728</v>
       </c>
       <c r="W4" t="n">
-        <v>1747.271504347906</v>
+        <v>396.9163833816505</v>
       </c>
       <c r="X4" t="n">
-        <v>1747.271504347906</v>
+        <v>396.9163833816505</v>
       </c>
       <c r="Y4" t="n">
-        <v>1747.271504347906</v>
+        <v>396.9163833816505</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>793.5954997698793</v>
+        <v>678.296692709313</v>
       </c>
       <c r="C5" t="n">
-        <v>793.5954997698793</v>
+        <v>678.296692709313</v>
       </c>
       <c r="D5" t="n">
-        <v>793.5954997698793</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5954997698793</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="M5" t="n">
-        <v>895.7983071407457</v>
+        <v>588.487006042433</v>
       </c>
       <c r="N5" t="n">
-        <v>1423.609590778208</v>
+        <v>1102.08968465212</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964322</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964322</v>
+        <v>1647.155266602908</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398921</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="V5" t="n">
-        <v>1583.54285054822</v>
+        <v>1049.295727741026</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.54285054822</v>
+        <v>678.296692709313</v>
       </c>
       <c r="X5" t="n">
-        <v>1194.090245481276</v>
+        <v>678.296692709313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.090245481276</v>
+        <v>678.296692709313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021447</v>
+        <v>556.1927859813143</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622369</v>
+        <v>405.5385555414065</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837172</v>
+        <v>275.4495881628868</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946049</v>
+        <v>139.0030972737745</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777367</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>1435.175877545631</v>
       </c>
       <c r="N6" t="n">
-        <v>1498.174658585115</v>
+        <v>1435.175877545631</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>1435.175877545631</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996757</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675987</v>
+        <v>887.3033373467683</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.609752343106</v>
+        <v>707.9891204222756</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1287724922402</v>
+        <v>211.7083646903492</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922402</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T7" t="n">
-        <v>506.4075462870908</v>
+        <v>740.13418548044</v>
       </c>
       <c r="U7" t="n">
-        <v>506.4075462870908</v>
+        <v>740.13418548044</v>
       </c>
       <c r="V7" t="n">
-        <v>422.2408336755969</v>
+        <v>740.13418548044</v>
       </c>
       <c r="W7" t="n">
-        <v>422.2408336755969</v>
+        <v>456.8037834116176</v>
       </c>
       <c r="X7" t="n">
-        <v>422.2408336755969</v>
+        <v>456.8037834116176</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.1287724922402</v>
+        <v>233.691722228261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1188.563327275425</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="C8" t="n">
-        <v>1188.563327275425</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="D8" t="n">
-        <v>803.1221984920926</v>
+        <v>906.9949704474925</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>504.411445564037</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>380.5183720066457</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,19 +4808,19 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1096.945999082414</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.757282719876</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2030.305891693271</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1985.548782066221</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1985.548782066221</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1985.548782066221</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.058072986822</v>
+        <v>1292.436099230825</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>763.5519739517948</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>763.5519739517948</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>607.9188608543095</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>607.9188608543095</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>450.5929260672825</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>282.338872166728</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>126.860321128222</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1470.676576838056</v>
+        <v>1565.393856750813</v>
       </c>
       <c r="C11" t="n">
-        <v>1149.297350487181</v>
+        <v>1244.014630399937</v>
       </c>
       <c r="D11" t="n">
-        <v>1149.297350487181</v>
+        <v>930.3697767627987</v>
       </c>
       <c r="E11" t="n">
-        <v>818.5101007499193</v>
+        <v>930.3697767627987</v>
       </c>
       <c r="F11" t="n">
-        <v>473.4119374260909</v>
+        <v>585.2716134389702</v>
       </c>
       <c r="G11" t="n">
-        <v>132.0454570602879</v>
+        <v>243.9051330731674</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2740.928571142733</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W11" t="n">
-        <v>2441.725811257214</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X11" t="n">
-        <v>2124.069481336464</v>
+        <v>2218.78676124922</v>
       </c>
       <c r="Y11" t="n">
-        <v>1799.375047403259</v>
+        <v>1894.092327316016</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.9088655939298</v>
+        <v>426.1976847794384</v>
       </c>
       <c r="C13" t="n">
-        <v>410.9088655939298</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="D13" t="n">
-        <v>327.0720276426384</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="E13" t="n">
-        <v>327.0720276426384</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675166</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126308</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245442</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>936.0428256245442</v>
+        <v>902.4593412843371</v>
       </c>
       <c r="W13" t="n">
-        <v>724.5086987019157</v>
+        <v>690.9252143617086</v>
       </c>
       <c r="X13" t="n">
-        <v>562.2246516310927</v>
+        <v>690.9252143617086</v>
       </c>
       <c r="Y13" t="n">
-        <v>410.9088655939298</v>
+        <v>539.6094283245459</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1702.435468430418</v>
+        <v>1688.124554843851</v>
       </c>
       <c r="C14" t="n">
-        <v>1381.056242079542</v>
+        <v>1366.745328492975</v>
       </c>
       <c r="D14" t="n">
-        <v>1067.411388442404</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185757</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527727</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3066.003853614568</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2914.299526320179</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2914.299526320179</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V14" t="n">
-        <v>2643.988992169891</v>
+        <v>2958.376549148527</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.786232284373</v>
+        <v>2659.173789263008</v>
       </c>
       <c r="X14" t="n">
-        <v>2027.129902363623</v>
+        <v>2341.517459342259</v>
       </c>
       <c r="Y14" t="n">
-        <v>1702.435468430418</v>
+        <v>2016.823025409054</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.973980501895</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.1594473319842</v>
+        <v>487.5760960984582</v>
       </c>
       <c r="C16" t="n">
-        <v>556.686367154245</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029535</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083499</v>
+        <v>305.4047163160376</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675166</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,7 +5434,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581891</v>
@@ -5443,10 +5443,10 @@
         <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U16" t="n">
-        <v>1280.705150907706</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V16" t="n">
-        <v>1280.705150907706</v>
+        <v>924.9842784840483</v>
       </c>
       <c r="W16" t="n">
-        <v>1069.171023985078</v>
+        <v>713.4501515614199</v>
       </c>
       <c r="X16" t="n">
-        <v>906.8869769142545</v>
+        <v>713.4501515614199</v>
       </c>
       <c r="Y16" t="n">
-        <v>755.5711908770917</v>
+        <v>600.9878396435656</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,19 +5543,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1059.426580900608</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5838,10 +5838,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,22 +5911,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.661451296041</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1249.152663612378</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386532</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753567</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645896</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6382,7 +6382,7 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,52 +6461,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.11893248314</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236564</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414153</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904115</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286446</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918587</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303043</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401236</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993063</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108095</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803381</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835482</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.8570290861562</v>
       </c>
       <c r="K32" t="n">
-        <v>621.3530052915014</v>
+        <v>763.1363857084586</v>
       </c>
       <c r="L32" t="n">
-        <v>1114.67329701003</v>
+        <v>1256.456677426987</v>
       </c>
       <c r="M32" t="n">
-        <v>1660.674197054611</v>
+        <v>1802.457577471568</v>
       </c>
       <c r="N32" t="n">
-        <v>2188.485480692073</v>
+        <v>2330.26886110903</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.798174311471</v>
+        <v>2770.308462001359</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170064</v>
+        <v>3118.49595413288</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3303.341514273829</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939828</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281937</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.47960313175</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946332</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076164</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>553.1136341390749</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.885283765756</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929705</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404851</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245252</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652531</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597515</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407224</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.73045008374177</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067526</v>
+        <v>342.9206752648155</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805523</v>
+        <v>618.7004357135983</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458865</v>
+        <v>910.7916726541068</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770957</v>
+        <v>1093.981306685316</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1256.686073727024</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250165</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273661</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400691</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045776</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027464</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,16 +7102,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7254,19 +7254,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343044</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655136</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7485,28 +7485,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7667,10 +7667,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7679,13 +7679,13 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462912</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343038</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655131</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072212</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>544.6970753003313</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>192.9080169436475</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463309884</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>96.0918232499975</v>
+        <v>611.1777065035417</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431187</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>193.5145772035906</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920139</v>
       </c>
       <c r="O5" t="n">
-        <v>369.9076017544717</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8301,13 +8301,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837493</v>
+        <v>574.460270139237</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>129.6793274559056</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8456,22 +8456,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>359.5215849845346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>489.0313597499241</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>422.8212561536984</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,16 +8769,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>515.2544481366739</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9015,16 +9015,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P15" t="n">
-        <v>320.902235706038</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>351.8313913012159</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>136.3731801151489</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10902,22 +10902,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>546.0917343741362</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>246.4122748155595</v>
+        <v>69.79576221908117</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>61.39481492005424</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>107.4099227568301</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>54.21710083833188</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>215.2734982257362</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>12.80640498397703</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>38.46493937811536</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1266031.431974018</v>
+        <v>1265429.884360257</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1266031.431974018</v>
+        <v>1265429.884360257</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18033.21780933569</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="C2" t="n">
         <v>18033.21780933568</v>
@@ -26329,31 +26329,31 @@
         <v>18033.21780933567</v>
       </c>
       <c r="H2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933567</v>
       </c>
       <c r="I2" t="n">
         <v>18033.21780933568</v>
       </c>
       <c r="J2" t="n">
-        <v>18033.21780933564</v>
+        <v>18033.21780933563</v>
       </c>
       <c r="K2" t="n">
-        <v>18033.21780933564</v>
+        <v>18033.21780933563</v>
       </c>
       <c r="L2" t="n">
-        <v>18033.21780933566</v>
+        <v>18033.21780933569</v>
       </c>
       <c r="M2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="N2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="O2" t="n">
         <v>18033.21780933568</v>
       </c>
       <c r="P2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401372</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.24177539693</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277114</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541666</v>
+        <v>195056.1330166297</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541666</v>
+        <v>195056.1330166298</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26445,7 +26445,7 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26457,7 +26457,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="P5" t="n">
         <v>58169.76931551966</v>
-      </c>
-      <c r="P5" t="n">
-        <v>58169.76931551968</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419801.5379767008</v>
+        <v>-416051.6397761661</v>
       </c>
       <c r="C6" t="n">
-        <v>-237596.5896848447</v>
+        <v>-242192.9827421113</v>
       </c>
       <c r="D6" t="n">
-        <v>-243612.391342618</v>
+        <v>-251348.6805660099</v>
       </c>
       <c r="E6" t="n">
-        <v>-249265.760339496</v>
+        <v>-249475.4918861856</v>
       </c>
       <c r="F6" t="n">
-        <v>-137143.1988654515</v>
+        <v>-137352.930412141</v>
       </c>
       <c r="G6" t="n">
         <v>-235213.8750424992</v>
@@ -26543,16 +26543,16 @@
         <v>-187788.5495058172</v>
       </c>
       <c r="J6" t="n">
-        <v>-400830.4671031028</v>
+        <v>-394314.1819485294</v>
       </c>
       <c r="K6" t="n">
         <v>-194028.3179086002</v>
       </c>
       <c r="L6" t="n">
-        <v>-249210.9068432213</v>
+        <v>-253259.7440536937</v>
       </c>
       <c r="M6" t="n">
-        <v>-229989.3789654402</v>
+        <v>-231041.0739766284</v>
       </c>
       <c r="N6" t="n">
         <v>-187788.5495058172</v>
@@ -26561,7 +26561,7 @@
         <v>-215556.2435485883</v>
       </c>
       <c r="P6" t="n">
-        <v>-187788.5495058173</v>
+        <v>-187788.5495058172</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293131</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
+        <v>776.489096301444</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.07030221924617</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551353</v>
+        <v>17.58004954287425</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346393</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.12687130428</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>144.8080766614445</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>317.1685000037739</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27433,16 +27433,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>32.71179201066411</v>
+        <v>26.66263604343773</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27555,7 +27555,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>63.37345344408113</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>139.8451511527067</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>230.7137937118871</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>209.0146295613225</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343774</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270228</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>161.5924145418556</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>179.9945062420051</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>129.8591412378104</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>290.0713512635047</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>53.01160359288127</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>106.0918628181349</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>28.0125002648524</v>
-      </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,7 +28983,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,22 +29217,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634528467</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>86.65052755599527</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431658</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>86.65052755599527</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K32" t="n">
-        <v>48.65992738833313</v>
+        <v>81.10808140892993</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861254176</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224692</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30174,19 +30174,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30289,7 +30289,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634528495</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,19 +30639,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.636002634529603</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634527927</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,19 +34699,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>391.4489055698396</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>43.78952560586337</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299765489</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>3.704701200685595</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>43.78952560586337</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="O5" t="n">
-        <v>220.3437643303753</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35021,13 +35021,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344374</v>
+        <v>482.073148089925</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>36.99176856701668</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35176,22 +35176,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>209.9577475604382</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>330.4341341043865</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>425.1941012797557</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35735,16 +35735,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P15" t="n">
-        <v>233.8188708867233</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>259.444269251904</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.46926427500488</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529087</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565485</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36595,16 +36595,16 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>584.9538525242062</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101042</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963363</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446907</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009064</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987991</v>
       </c>
       <c r="K32" t="n">
-        <v>411.2683678201128</v>
+        <v>443.7165218407096</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537685</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>51.00106726098225</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>82.70543230055105</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993517</v>
+        <v>195.4415774595201</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>295.0416534752612</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37470,19 +37470,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>460.7196215199696</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.8093140873204</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094884</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38032,7 +38032,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873199</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184307</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
